--- a/fadu_data_all_drugs_vs_ctrl_plot_run1_CTB.xlsx
+++ b/fadu_data_all_drugs_vs_ctrl_plot_run1_CTB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serebrii/Work/Flavi_screen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilya/Work/Flavi CBD screen/CBD_synergy_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{64325D44-E8AA-4C46-99A2-F20745C2B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF84C540-D1E2-7B47-8AC1-C115DD53E0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="6820" windowWidth="26500" windowHeight="12080"/>
+    <workbookView xWindow="1780" yWindow="5240" windowWidth="36960" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fadu_data_all_drugs_vs_ctrl_plo" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
   <si>
     <t>drugs</t>
   </si>
@@ -436,11 +436,26 @@
   <si>
     <t>CBD2 helps</t>
   </si>
+  <si>
+    <t>Moderately inhibiting:</t>
+  </si>
+  <si>
+    <t>Of these, higher conc not inhibiting stronger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inhibiting below threshold:</t>
+  </si>
+  <si>
+    <t>Of these, higher conc  inhibiting stronger</t>
+  </si>
+  <si>
+    <t>Overall, higher conc  inhibiting less</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -973,107 +988,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1433,12 +1348,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AP96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP7" sqref="AP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1446,9 +1361,11 @@
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="30" max="33" width="0" hidden="1" customWidth="1"/>
+    <col min="34" max="35" width="12" customWidth="1"/>
+    <col min="41" max="41" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1487,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1671,15 +1588,15 @@
         <v>1</v>
       </c>
       <c r="AH2" s="3">
-        <f>T2/R2</f>
+        <f t="shared" ref="AH2:AH33" si="0">T2/R2</f>
         <v>1.0274153119730471</v>
       </c>
       <c r="AI2" s="3">
-        <f>U2/S2</f>
+        <f t="shared" ref="AI2:AI33" si="1">U2/S2</f>
         <v>0.9354473040005693</v>
       </c>
       <c r="AJ2" s="4">
-        <f>(R2&lt;0.85)+(T2&lt;0.85)</f>
+        <f t="shared" ref="AJ2:AJ33" si="2">(R2&lt;0.85)+(T2&lt;0.85)</f>
         <v>0</v>
       </c>
       <c r="AK2" t="b">
@@ -1699,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1800,35 +1717,42 @@
         <v>0.79999999999999905</v>
       </c>
       <c r="AH3" s="3">
-        <f>T3/R3</f>
+        <f t="shared" si="0"/>
         <v>1.3045694520951017</v>
       </c>
       <c r="AI3" s="3">
-        <f>U3/S3</f>
+        <f t="shared" si="1"/>
         <v>1.0195041552303159</v>
       </c>
       <c r="AJ3" s="4">
-        <f>(R3&lt;0.85)+(T3&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK3" t="b">
-        <f t="shared" ref="AK3:AK30" si="0">(S3/R3&lt;0.85)</f>
+        <f t="shared" ref="AK3:AK30" si="3">(S3/R3&lt;0.85)</f>
         <v>0</v>
       </c>
       <c r="AL3" t="b">
-        <f t="shared" ref="AL3:AL30" si="1">(U3/T3&lt;0.85)</f>
+        <f t="shared" ref="AL3:AL30" si="4">(U3/T3&lt;0.85)</f>
         <v>0</v>
       </c>
       <c r="AM3" t="b">
-        <f t="shared" ref="AM3:AM66" si="2">(S3/R3&gt;1.15)</f>
+        <f t="shared" ref="AM3:AM66" si="5">(S3/R3&gt;1.15)</f>
         <v>0</v>
       </c>
       <c r="AN3" t="b">
-        <f t="shared" ref="AN3:AN66" si="3">(U3/T3&gt;1.15)</f>
-        <v>0</v>
+        <f t="shared" ref="AN3:AN66" si="6">(U3/T3&gt;1.15)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP3">
+        <f>COUNTIFS(R1:R76,"&lt;0.85")</f>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1929,35 +1853,42 @@
         <v>0.2</v>
       </c>
       <c r="AH4" s="3">
-        <f>T4/R4</f>
+        <f t="shared" si="0"/>
         <v>1.1683705568588489</v>
       </c>
       <c r="AI4" s="3">
-        <f>U4/S4</f>
+        <f t="shared" si="1"/>
         <v>1.0250966260776544</v>
       </c>
       <c r="AJ4" s="4">
-        <f>(R4&lt;0.85)+(T4&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK4" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL4" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM4" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN4" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP4">
+        <f>COUNTIFS(R:R,"&lt;0.85", R:R,"&gt;0.65")</f>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2058,35 +1989,42 @@
         <v>1</v>
       </c>
       <c r="AH5" s="3">
-        <f>T5/R5</f>
+        <f t="shared" si="0"/>
         <v>1.2600909924642714</v>
       </c>
       <c r="AI5" s="3">
-        <f>U5/S5</f>
+        <f t="shared" si="1"/>
         <v>1.0120917673585426</v>
       </c>
       <c r="AJ5" s="4">
-        <f>(R5&lt;0.85)+(T5&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK5" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL5" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AM5" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN5" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP5">
+        <f>COUNTIFS(R:R,"&lt;0.85", R:R,"&gt;0.65",AH:AH,"&gt;0.95")</f>
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -2187,35 +2125,42 @@
         <v>0.4</v>
       </c>
       <c r="AH6" s="3">
-        <f>T6/R6</f>
+        <f t="shared" si="0"/>
         <v>1.1732496188273547</v>
       </c>
       <c r="AI6" s="3">
-        <f>U6/S6</f>
+        <f t="shared" si="1"/>
         <v>1.0284047482059706</v>
       </c>
       <c r="AJ6" s="4">
-        <f>(R6&lt;0.85)+(T6&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK6" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL6" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM6" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN6" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP6">
+        <f>COUNTIFS(R:R,"&lt;0.85", R:R,"&gt;0.65",AH:AH,"&lt;0.85")</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2316,35 +2261,42 @@
         <v>0.8</v>
       </c>
       <c r="AH7" s="3">
-        <f>T7/R7</f>
+        <f t="shared" si="0"/>
         <v>1.0839905626651063</v>
       </c>
       <c r="AI7" s="3">
-        <f>U7/S7</f>
+        <f t="shared" si="1"/>
         <v>0.93689298557792644</v>
       </c>
       <c r="AJ7" s="4">
-        <f>(R7&lt;0.85)+(T7&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK7" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL7" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM7" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN7" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP7">
+        <f>COUNTIFS(AH1:AH76,"&gt;=1.15")</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -2445,35 +2397,35 @@
         <v>1</v>
       </c>
       <c r="AH8" s="3">
-        <f>T8/R8</f>
+        <f t="shared" si="0"/>
         <v>1.0356869828060573</v>
       </c>
       <c r="AI8" s="3">
-        <f>U8/S8</f>
+        <f t="shared" si="1"/>
         <v>1.0067862534246863</v>
       </c>
       <c r="AJ8" s="4">
-        <f>(R8&lt;0.85)+(T8&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK8" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL8" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM8" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN8" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2574,35 +2526,35 @@
         <v>0.2</v>
       </c>
       <c r="AH9" s="3">
-        <f>T9/R9</f>
+        <f t="shared" si="0"/>
         <v>0.92020818873273369</v>
       </c>
       <c r="AI9" s="3">
-        <f>U9/S9</f>
+        <f t="shared" si="1"/>
         <v>0.96625289981950468</v>
       </c>
       <c r="AJ9" s="4">
-        <f>(R9&lt;0.85)+(T9&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK9" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL9" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM9" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN9" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2703,35 +2655,35 @@
         <v>0.2</v>
       </c>
       <c r="AH10" s="3">
-        <f>T10/R10</f>
+        <f t="shared" si="0"/>
         <v>0.9288383696280712</v>
       </c>
       <c r="AI10" s="3">
-        <f>U10/S10</f>
+        <f t="shared" si="1"/>
         <v>0.80810116414525979</v>
       </c>
       <c r="AJ10" s="4">
-        <f>(R10&lt;0.85)+(T10&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK10" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL10" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN10" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2832,35 +2784,35 @@
         <v>2.3809523809523801E-2</v>
       </c>
       <c r="AH11" s="3">
-        <f>T11/R11</f>
+        <f t="shared" si="0"/>
         <v>1.0508722658840968</v>
       </c>
       <c r="AI11" s="3">
-        <f>U11/S11</f>
+        <f t="shared" si="1"/>
         <v>1.0334333559257505</v>
       </c>
       <c r="AJ11" s="4">
-        <f>(R11&lt;0.85)+(T11&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK11" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL11" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM11" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN11" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2961,35 +2913,35 @@
         <v>0.22857142857142801</v>
       </c>
       <c r="AH12" s="3">
-        <f>T12/R12</f>
+        <f t="shared" si="0"/>
         <v>0.82386194914845956</v>
       </c>
       <c r="AI12" s="3">
-        <f>U12/S12</f>
+        <f t="shared" si="1"/>
         <v>0.89979515389310205</v>
       </c>
       <c r="AJ12" s="4">
-        <f>(R12&lt;0.85)+(T12&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK12" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL12" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM12" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN12" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3090,35 +3042,35 @@
         <v>0.22857142857142801</v>
       </c>
       <c r="AH13" s="3">
-        <f>T13/R13</f>
+        <f t="shared" si="0"/>
         <v>0.94812035781983084</v>
       </c>
       <c r="AI13" s="3">
-        <f>U13/S13</f>
+        <f t="shared" si="1"/>
         <v>0.95259703028841436</v>
       </c>
       <c r="AJ13" s="4">
-        <f>(R13&lt;0.85)+(T13&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK13" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL13" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM13" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN13" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -3219,35 +3171,35 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH14" s="3">
-        <f>T14/R14</f>
+        <f t="shared" si="0"/>
         <v>0.89918773723224221</v>
       </c>
       <c r="AI14" s="3">
-        <f>U14/S14</f>
+        <f t="shared" si="1"/>
         <v>0.86137012740356922</v>
       </c>
       <c r="AJ14" s="4">
-        <f>(R14&lt;0.85)+(T14&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK14" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL14" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM14" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN14" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3348,35 +3300,35 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH15" s="3">
-        <f>T15/R15</f>
+        <f t="shared" si="0"/>
         <v>0.40814093351849728</v>
       </c>
       <c r="AI15" s="3">
-        <f>U15/S15</f>
+        <f t="shared" si="1"/>
         <v>0.46794196378941405</v>
       </c>
       <c r="AJ15" s="4">
-        <f>(R15&lt;0.85)+(T15&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK15" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL15" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM15" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN15" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -3477,31 +3429,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH16" s="3">
-        <f>T16/R16</f>
+        <f t="shared" si="0"/>
         <v>0.49851611675956836</v>
       </c>
       <c r="AI16" s="3">
-        <f>U16/S16</f>
+        <f t="shared" si="1"/>
         <v>0.55674694728051077</v>
       </c>
       <c r="AJ16" s="4">
-        <f>(R16&lt;0.85)+(T16&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK16" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL16" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM16" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN16" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3606,31 +3558,31 @@
         <v>1</v>
       </c>
       <c r="AH17" s="3">
-        <f>T17/R17</f>
+        <f t="shared" si="0"/>
         <v>0.96368995589702633</v>
       </c>
       <c r="AI17" s="3">
-        <f>U17/S17</f>
+        <f t="shared" si="1"/>
         <v>1.0055832736325176</v>
       </c>
       <c r="AJ17" s="4">
-        <f>(R17&lt;0.85)+(T17&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK17" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL17" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM17" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN17" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3735,31 +3687,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH18" s="3">
-        <f>T18/R18</f>
+        <f t="shared" si="0"/>
         <v>0.628423123673299</v>
       </c>
       <c r="AI18" s="3">
-        <f>U18/S18</f>
+        <f t="shared" si="1"/>
         <v>0.65034089234255221</v>
       </c>
       <c r="AJ18" s="4">
-        <f>(R18&lt;0.85)+(T18&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK18" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL18" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM18" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN18" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3864,31 +3816,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH19" s="3">
-        <f>T19/R19</f>
+        <f t="shared" si="0"/>
         <v>0.70094617322145414</v>
       </c>
       <c r="AI19" s="3">
-        <f>U19/S19</f>
+        <f t="shared" si="1"/>
         <v>0.58484237850510912</v>
       </c>
       <c r="AJ19" s="4">
-        <f>(R19&lt;0.85)+(T19&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK19" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL19" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM19" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN19" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3993,31 +3945,31 @@
         <v>2.3809523809523801E-2</v>
       </c>
       <c r="AH20" s="3">
-        <f>T20/R20</f>
+        <f t="shared" si="0"/>
         <v>1.0059036946530786</v>
       </c>
       <c r="AI20" s="3">
-        <f>U20/S20</f>
+        <f t="shared" si="1"/>
         <v>0.98705308760737254</v>
       </c>
       <c r="AJ20" s="4">
-        <f>(R20&lt;0.85)+(T20&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK20" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL20" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM20" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN20" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4122,31 +4074,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH21" s="3">
-        <f>T21/R21</f>
+        <f t="shared" si="0"/>
         <v>0.97564012480213791</v>
       </c>
       <c r="AI21" s="3">
-        <f>U21/S21</f>
+        <f t="shared" si="1"/>
         <v>1.0061433227086662</v>
       </c>
       <c r="AJ21" s="4">
-        <f>(R21&lt;0.85)+(T21&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK21" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL21" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM21" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN21" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4251,31 +4203,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH22" s="3">
-        <f>T22/R22</f>
+        <f t="shared" si="0"/>
         <v>0.94960205909366546</v>
       </c>
       <c r="AI22" s="3">
-        <f>U22/S22</f>
+        <f t="shared" si="1"/>
         <v>1.0626595258613241</v>
       </c>
       <c r="AJ22" s="4">
-        <f>(R22&lt;0.85)+(T22&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK22" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL22" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM22" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN22" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4380,31 +4332,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH23" s="3">
-        <f>T23/R23</f>
+        <f t="shared" si="0"/>
         <v>1.0971869464272275</v>
       </c>
       <c r="AI23" s="3">
-        <f>U23/S23</f>
+        <f t="shared" si="1"/>
         <v>1.1466568139734161</v>
       </c>
       <c r="AJ23" s="4">
-        <f>(R23&lt;0.85)+(T23&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK23" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL23" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM23" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN23" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4509,31 +4461,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH24" s="3">
-        <f>T24/R24</f>
+        <f t="shared" si="0"/>
         <v>0.95761922826689261</v>
       </c>
       <c r="AI24" s="3">
-        <f>U24/S24</f>
+        <f t="shared" si="1"/>
         <v>1.0354729807831837</v>
       </c>
       <c r="AJ24" s="4">
-        <f>(R24&lt;0.85)+(T24&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK24" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL24" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM24" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN24" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4638,31 +4590,31 @@
         <v>0.628571428571428</v>
       </c>
       <c r="AH25" s="3">
-        <f>T25/R25</f>
+        <f t="shared" si="0"/>
         <v>1.0723494226154784</v>
       </c>
       <c r="AI25" s="3">
-        <f>U25/S25</f>
+        <f t="shared" si="1"/>
         <v>0.96209954414968057</v>
       </c>
       <c r="AJ25" s="4">
-        <f>(R25&lt;0.85)+(T25&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK25" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL25" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM25" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN25" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4767,31 +4719,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH26" s="3">
-        <f>T26/R26</f>
+        <f t="shared" si="0"/>
         <v>0.94629078202392458</v>
       </c>
       <c r="AI26" s="3">
-        <f>U26/S26</f>
+        <f t="shared" si="1"/>
         <v>0.88176556078742374</v>
       </c>
       <c r="AJ26" s="4">
-        <f>(R26&lt;0.85)+(T26&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK26" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL26" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM26" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN26" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4896,31 +4848,31 @@
         <v>0.114285714285714</v>
       </c>
       <c r="AH27" s="3">
-        <f>T27/R27</f>
+        <f t="shared" si="0"/>
         <v>0.71943317932608286</v>
       </c>
       <c r="AI27" s="3">
-        <f>U27/S27</f>
+        <f t="shared" si="1"/>
         <v>0.63989629562173866</v>
       </c>
       <c r="AJ27" s="4">
-        <f>(R27&lt;0.85)+(T27&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK27" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL27" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM27" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN27" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5025,31 +4977,31 @@
         <v>1</v>
       </c>
       <c r="AH28" s="3">
-        <f>T28/R28</f>
+        <f t="shared" si="0"/>
         <v>1.1466286882213945</v>
       </c>
       <c r="AI28" s="3">
-        <f>U28/S28</f>
+        <f t="shared" si="1"/>
         <v>0.99867877622154233</v>
       </c>
       <c r="AJ28" s="4">
-        <f>(R28&lt;0.85)+(T28&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM28" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN28" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5154,31 +5106,31 @@
         <v>0.71428571428571397</v>
       </c>
       <c r="AH29" s="3">
-        <f>T29/R29</f>
+        <f t="shared" si="0"/>
         <v>1.0050175895454596</v>
       </c>
       <c r="AI29" s="3">
-        <f>U29/S29</f>
+        <f t="shared" si="1"/>
         <v>0.97165942267876115</v>
       </c>
       <c r="AJ29" s="4">
-        <f>(R29&lt;0.85)+(T29&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK29" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL29" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM29" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN29" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5283,31 +5235,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH30" s="3">
-        <f>T30/R30</f>
+        <f t="shared" si="0"/>
         <v>0.69933256798135945</v>
       </c>
       <c r="AI30" s="3">
-        <f>U30/S30</f>
+        <f t="shared" si="1"/>
         <v>0.66793055689891645</v>
       </c>
       <c r="AJ30" s="4">
-        <f>(R30&lt;0.85)+(T30&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK30" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL30" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM30" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN30" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5412,31 +5364,31 @@
         <v>0.628571428571428</v>
       </c>
       <c r="AH31" s="3">
-        <f>T31/R31</f>
+        <f t="shared" si="0"/>
         <v>0.88463220650092589</v>
       </c>
       <c r="AI31" s="3">
-        <f>U31/S31</f>
+        <f t="shared" si="1"/>
         <v>0.94986065371995365</v>
       </c>
       <c r="AJ31" s="4">
-        <f>(R31&lt;0.85)+(T31&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK31" t="b">
-        <f t="shared" ref="AK31:AK94" si="4">(S31/R31&lt;0.85)</f>
+        <f t="shared" ref="AK31:AK94" si="7">(S31/R31&lt;0.85)</f>
         <v>0</v>
       </c>
       <c r="AL31" t="b">
-        <f t="shared" ref="AL31:AL94" si="5">(U31/T31&lt;0.85)</f>
+        <f t="shared" ref="AL31:AL94" si="8">(U31/T31&lt;0.85)</f>
         <v>0</v>
       </c>
       <c r="AM31" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN31" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5541,31 +5493,31 @@
         <v>0.22857142857142801</v>
       </c>
       <c r="AH32" s="3">
-        <f>T32/R32</f>
+        <f t="shared" si="0"/>
         <v>0.90498814846013487</v>
       </c>
       <c r="AI32" s="3">
-        <f>U32/S32</f>
+        <f t="shared" si="1"/>
         <v>1.0123281833079378</v>
       </c>
       <c r="AJ32" s="4">
-        <f>(R32&lt;0.85)+(T32&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK32" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL32" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM32" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM32" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN32" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5670,31 +5622,31 @@
         <v>0.22857142857142801</v>
       </c>
       <c r="AH33" s="3">
-        <f>T33/R33</f>
+        <f t="shared" si="0"/>
         <v>0.96461099142853668</v>
       </c>
       <c r="AI33" s="3">
-        <f>U33/S33</f>
+        <f t="shared" si="1"/>
         <v>1.0570578656309533</v>
       </c>
       <c r="AJ33" s="4">
-        <f>(R33&lt;0.85)+(T33&lt;0.85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK33" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL33" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM33" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM33" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN33" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5799,31 +5751,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH34" s="3">
-        <f>T34/R34</f>
+        <f t="shared" ref="AH34:AH65" si="9">T34/R34</f>
         <v>0.85504463522295682</v>
       </c>
       <c r="AI34" s="3">
-        <f>U34/S34</f>
+        <f t="shared" ref="AI34:AI65" si="10">U34/S34</f>
         <v>0.86072586881265911</v>
       </c>
       <c r="AJ34" s="4">
-        <f>(R34&lt;0.85)+(T34&lt;0.85)</f>
+        <f t="shared" ref="AJ34:AJ65" si="11">(R34&lt;0.85)+(T34&lt;0.85)</f>
         <v>1</v>
       </c>
       <c r="AK34" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL34" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM34" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM34" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN34" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5928,31 +5880,31 @@
         <v>0.628571428571428</v>
       </c>
       <c r="AH35" s="3">
-        <f>T35/R35</f>
+        <f t="shared" si="9"/>
         <v>0.97993632908155781</v>
       </c>
       <c r="AI35" s="3">
-        <f>U35/S35</f>
+        <f t="shared" si="10"/>
         <v>0.95010050313601635</v>
       </c>
       <c r="AJ35" s="4">
-        <f>(R35&lt;0.85)+(T35&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK35" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL35" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM35" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM35" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN35" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6057,31 +6009,31 @@
         <v>0.4</v>
       </c>
       <c r="AH36" s="3">
-        <f>T36/R36</f>
+        <f t="shared" si="9"/>
         <v>0.76765558713969229</v>
       </c>
       <c r="AI36" s="3">
-        <f>U36/S36</f>
+        <f t="shared" si="10"/>
         <v>0.83722344497934953</v>
       </c>
       <c r="AJ36" s="4">
-        <f>(R36&lt;0.85)+(T36&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AK36" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL36" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM36" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM36" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN36" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6186,31 +6138,31 @@
         <v>1</v>
       </c>
       <c r="AH37" s="3">
-        <f>T37/R37</f>
+        <f t="shared" si="9"/>
         <v>1.0496148550513071</v>
       </c>
       <c r="AI37" s="3">
-        <f>U37/S37</f>
+        <f t="shared" si="10"/>
         <v>1.1169486457400659</v>
       </c>
       <c r="AJ37" s="4">
-        <f>(R37&lt;0.85)+(T37&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK37" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL37" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM37" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM37" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN37" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6315,31 +6267,31 @@
         <v>3.5714285714285698E-2</v>
       </c>
       <c r="AH38" s="3">
-        <f>T38/R38</f>
+        <f t="shared" si="9"/>
         <v>1.2310434941081423</v>
       </c>
       <c r="AI38" s="3">
-        <f>U38/S38</f>
+        <f t="shared" si="10"/>
         <v>1.0387526247412557</v>
       </c>
       <c r="AJ38" s="4">
-        <f>(R38&lt;0.85)+(T38&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AK38" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL38" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM38" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AM38" t="b">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AN38" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6444,31 +6396,31 @@
         <v>0.628571428571428</v>
       </c>
       <c r="AH39" s="3">
-        <f>T39/R39</f>
+        <f t="shared" si="9"/>
         <v>0.77770109552958122</v>
       </c>
       <c r="AI39" s="3">
-        <f>U39/S39</f>
+        <f t="shared" si="10"/>
         <v>0.9579503681261109</v>
       </c>
       <c r="AJ39" s="4">
-        <f>(R39&lt;0.85)+(T39&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK39" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AL39" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM39" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM39" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN39" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6573,31 +6525,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH40" s="3">
-        <f>T40/R40</f>
+        <f t="shared" si="9"/>
         <v>0.96327383025274427</v>
       </c>
       <c r="AI40" s="3">
-        <f>U40/S40</f>
+        <f t="shared" si="10"/>
         <v>1.1428949506001462</v>
       </c>
       <c r="AJ40" s="4">
-        <f>(R40&lt;0.85)+(T40&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AK40" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL40" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM40" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM40" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6702,31 +6654,31 @@
         <v>0.22857142857142801</v>
       </c>
       <c r="AH41" s="3">
-        <f>T41/R41</f>
+        <f t="shared" si="9"/>
         <v>0.7854152460096242</v>
       </c>
       <c r="AI41" s="3">
-        <f>U41/S41</f>
+        <f t="shared" si="10"/>
         <v>0.93817825368602981</v>
       </c>
       <c r="AJ41" s="4">
-        <f>(R41&lt;0.85)+(T41&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AK41" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL41" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM41" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM41" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN41" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6831,31 +6783,31 @@
         <v>0.22857142857142801</v>
       </c>
       <c r="AH42" s="3">
-        <f>T42/R42</f>
+        <f t="shared" si="9"/>
         <v>1.0177984028191787</v>
       </c>
       <c r="AI42" s="3">
-        <f>U42/S42</f>
+        <f t="shared" si="10"/>
         <v>1.0290073281055054</v>
       </c>
       <c r="AJ42" s="4">
-        <f>(R42&lt;0.85)+(T42&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK42" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL42" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM42" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM42" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN42" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6960,31 +6912,31 @@
         <v>0.4</v>
       </c>
       <c r="AH43" s="3">
-        <f>T43/R43</f>
+        <f t="shared" si="9"/>
         <v>1.1208370145792494</v>
       </c>
       <c r="AI43" s="3">
-        <f>U43/S43</f>
+        <f t="shared" si="10"/>
         <v>1.2628035853893196</v>
       </c>
       <c r="AJ43" s="4">
-        <f>(R43&lt;0.85)+(T43&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AK43" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL43" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM43" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM43" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN43" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7089,31 +7041,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH44" s="3">
-        <f>T44/R44</f>
+        <f t="shared" si="9"/>
         <v>0.78315872652879792</v>
       </c>
       <c r="AI44" s="3">
-        <f>U44/S44</f>
+        <f t="shared" si="10"/>
         <v>0.87178619505537303</v>
       </c>
       <c r="AJ44" s="4">
-        <f>(R44&lt;0.85)+(T44&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AK44" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL44" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM44" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM44" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN44" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7218,31 +7170,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH45" s="3">
-        <f>T45/R45</f>
+        <f t="shared" si="9"/>
         <v>0.78628633419101734</v>
       </c>
       <c r="AI45" s="3">
-        <f>U45/S45</f>
+        <f t="shared" si="10"/>
         <v>0.834270132143489</v>
       </c>
       <c r="AJ45" s="4">
-        <f>(R45&lt;0.85)+(T45&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AK45" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL45" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM45" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM45" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN45" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7347,31 +7299,31 @@
         <v>0.4</v>
       </c>
       <c r="AH46" s="3">
-        <f>T46/R46</f>
+        <f t="shared" si="9"/>
         <v>0.94460026884226578</v>
       </c>
       <c r="AI46" s="3">
-        <f>U46/S46</f>
+        <f t="shared" si="10"/>
         <v>0.95112783545135049</v>
       </c>
       <c r="AJ46" s="4">
-        <f>(R46&lt;0.85)+(T46&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK46" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL46" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM46" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM46" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN46" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7476,31 +7428,31 @@
         <v>1</v>
       </c>
       <c r="AH47" s="3">
-        <f>T47/R47</f>
+        <f t="shared" si="9"/>
         <v>1.1775716080533942</v>
       </c>
       <c r="AI47" s="3">
-        <f>U47/S47</f>
+        <f t="shared" si="10"/>
         <v>1.0490935210347911</v>
       </c>
       <c r="AJ47" s="4">
-        <f>(R47&lt;0.85)+(T47&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK47" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL47" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM47" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM47" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN47" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7605,31 +7557,31 @@
         <v>0.22857142857142801</v>
       </c>
       <c r="AH48" s="3">
-        <f>T48/R48</f>
+        <f t="shared" si="9"/>
         <v>0.91409749633349757</v>
       </c>
       <c r="AI48" s="3">
-        <f>U48/S48</f>
+        <f t="shared" si="10"/>
         <v>0.938318142257066</v>
       </c>
       <c r="AJ48" s="4">
-        <f>(R48&lt;0.85)+(T48&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK48" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL48" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM48" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM48" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN48" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7734,31 +7686,31 @@
         <v>0.4</v>
       </c>
       <c r="AH49" s="3">
-        <f>T49/R49</f>
+        <f t="shared" si="9"/>
         <v>0.86721485339046112</v>
       </c>
       <c r="AI49" s="3">
-        <f>U49/S49</f>
+        <f t="shared" si="10"/>
         <v>0.98363031973975645</v>
       </c>
       <c r="AJ49" s="4">
-        <f>(R49&lt;0.85)+(T49&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK49" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL49" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM49" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM49" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN49" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7863,31 +7815,31 @@
         <v>0.628571428571428</v>
       </c>
       <c r="AH50" s="3">
-        <f>T50/R50</f>
+        <f t="shared" si="9"/>
         <v>0.90061690369454961</v>
       </c>
       <c r="AI50" s="3">
-        <f>U50/S50</f>
+        <f t="shared" si="10"/>
         <v>1.0435754718774726</v>
       </c>
       <c r="AJ50" s="4">
-        <f>(R50&lt;0.85)+(T50&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK50" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL50" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM50" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM50" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN50" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7992,31 +7944,31 @@
         <v>0.4</v>
       </c>
       <c r="AH51" s="3">
-        <f>T51/R51</f>
+        <f t="shared" si="9"/>
         <v>1.0302953671544615</v>
       </c>
       <c r="AI51" s="3">
-        <f>U51/S51</f>
+        <f t="shared" si="10"/>
         <v>1.0691317429866336</v>
       </c>
       <c r="AJ51" s="4">
-        <f>(R51&lt;0.85)+(T51&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK51" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL51" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM51" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM51" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN51" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8121,31 +8073,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH52" s="3">
-        <f>T52/R52</f>
+        <f t="shared" si="9"/>
         <v>0.85297822541501056</v>
       </c>
       <c r="AI52" s="3">
-        <f>U52/S52</f>
+        <f t="shared" si="10"/>
         <v>0.76716138307120418</v>
       </c>
       <c r="AJ52" s="4">
-        <f>(R52&lt;0.85)+(T52&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AK52" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL52" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM52" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM52" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN52" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8250,31 +8202,31 @@
         <v>0.85714285714285698</v>
       </c>
       <c r="AH53" s="3">
-        <f>T53/R53</f>
+        <f t="shared" si="9"/>
         <v>0.9677739868026658</v>
       </c>
       <c r="AI53" s="3">
-        <f>U53/S53</f>
+        <f t="shared" si="10"/>
         <v>0.99158508048266303</v>
       </c>
       <c r="AJ53" s="4">
-        <f>(R53&lt;0.85)+(T53&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK53" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL53" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM53" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM53" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN53" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8379,31 +8331,31 @@
         <v>0.114285714285714</v>
       </c>
       <c r="AH54" s="3">
-        <f>T54/R54</f>
+        <f t="shared" si="9"/>
         <v>1.0550045150992589</v>
       </c>
       <c r="AI54" s="3">
-        <f>U54/S54</f>
+        <f t="shared" si="10"/>
         <v>1.0541192144116125</v>
       </c>
       <c r="AJ54" s="4">
-        <f>(R54&lt;0.85)+(T54&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK54" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL54" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM54" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM54" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN54" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8508,31 +8460,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH55" s="3">
-        <f>T55/R55</f>
+        <f t="shared" si="9"/>
         <v>1.0243326498333489</v>
       </c>
       <c r="AI55" s="3">
-        <f>U55/S55</f>
+        <f t="shared" si="10"/>
         <v>0.91343112445064378</v>
       </c>
       <c r="AJ55" s="4">
-        <f>(R55&lt;0.85)+(T55&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK55" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL55" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM55" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM55" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN55" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8637,31 +8589,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH56" s="3">
-        <f>T56/R56</f>
+        <f t="shared" si="9"/>
         <v>1.0372738803249868</v>
       </c>
       <c r="AI56" s="3">
-        <f>U56/S56</f>
+        <f t="shared" si="10"/>
         <v>0.91476553766107416</v>
       </c>
       <c r="AJ56" s="4">
-        <f>(R56&lt;0.85)+(T56&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK56" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL56" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM56" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM56" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN56" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8766,31 +8718,31 @@
         <v>0.4</v>
       </c>
       <c r="AH57" s="3">
-        <f>T57/R57</f>
+        <f t="shared" si="9"/>
         <v>0.92605269507519894</v>
       </c>
       <c r="AI57" s="3">
-        <f>U57/S57</f>
+        <f t="shared" si="10"/>
         <v>0.9878306306872926</v>
       </c>
       <c r="AJ57" s="4">
-        <f>(R57&lt;0.85)+(T57&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK57" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL57" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM57" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM57" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN57" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8895,31 +8847,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH58" s="3">
-        <f>T58/R58</f>
+        <f t="shared" si="9"/>
         <v>0.80330692683926397</v>
       </c>
       <c r="AI58" s="3">
-        <f>U58/S58</f>
+        <f t="shared" si="10"/>
         <v>0.86264540635661435</v>
       </c>
       <c r="AJ58" s="4">
-        <f>(R58&lt;0.85)+(T58&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AK58" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL58" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM58" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM58" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN58" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9024,31 +8976,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH59" s="3">
-        <f>T59/R59</f>
+        <f t="shared" si="9"/>
         <v>0.9466490526452539</v>
       </c>
       <c r="AI59" s="3">
-        <f>U59/S59</f>
+        <f t="shared" si="10"/>
         <v>0.97205213800472157</v>
       </c>
       <c r="AJ59" s="4">
-        <f>(R59&lt;0.85)+(T59&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AK59" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL59" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM59" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM59" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN59" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9153,31 +9105,31 @@
         <v>0.4</v>
       </c>
       <c r="AH60" s="3">
-        <f>T60/R60</f>
+        <f t="shared" si="9"/>
         <v>1.0271432614488931</v>
       </c>
       <c r="AI60" s="3">
-        <f>U60/S60</f>
+        <f t="shared" si="10"/>
         <v>0.98058238516327867</v>
       </c>
       <c r="AJ60" s="4">
-        <f>(R60&lt;0.85)+(T60&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK60" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL60" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM60" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM60" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN60" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9282,31 +9234,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH61" s="3">
-        <f>T61/R61</f>
+        <f t="shared" si="9"/>
         <v>0.44507083533026104</v>
       </c>
       <c r="AI61" s="3">
-        <f>U61/S61</f>
+        <f t="shared" si="10"/>
         <v>0.48675107730333333</v>
       </c>
       <c r="AJ61" s="4">
-        <f>(R61&lt;0.85)+(T61&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AK61" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL61" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM61" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM61" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN61" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9411,31 +9363,31 @@
         <v>0.85714285714285698</v>
       </c>
       <c r="AH62" s="3">
-        <f>T62/R62</f>
+        <f t="shared" si="9"/>
         <v>0.9935447372871572</v>
       </c>
       <c r="AI62" s="3">
-        <f>U62/S62</f>
+        <f t="shared" si="10"/>
         <v>1.0455372150444351</v>
       </c>
       <c r="AJ62" s="4">
-        <f>(R62&lt;0.85)+(T62&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK62" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL62" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM62" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM62" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN62" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9540,31 +9492,31 @@
         <v>0.4</v>
       </c>
       <c r="AH63" s="3">
-        <f>T63/R63</f>
+        <f t="shared" si="9"/>
         <v>0.97354337008086145</v>
       </c>
       <c r="AI63" s="3">
-        <f>U63/S63</f>
+        <f t="shared" si="10"/>
         <v>0.97139726474435961</v>
       </c>
       <c r="AJ63" s="4">
-        <f>(R63&lt;0.85)+(T63&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK63" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL63" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM63" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM63" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN63" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9669,31 +9621,31 @@
         <v>0.628571428571428</v>
       </c>
       <c r="AH64" s="3">
-        <f>T64/R64</f>
+        <f t="shared" si="9"/>
         <v>0.92227543364637565</v>
       </c>
       <c r="AI64" s="3">
-        <f>U64/S64</f>
+        <f t="shared" si="10"/>
         <v>0.90939890539137602</v>
       </c>
       <c r="AJ64" s="4">
-        <f>(R64&lt;0.85)+(T64&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK64" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL64" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM64" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM64" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN64" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9798,31 +9750,31 @@
         <v>0.114285714285714</v>
       </c>
       <c r="AH65" s="3">
-        <f>T65/R65</f>
+        <f t="shared" si="9"/>
         <v>0.96962130893406384</v>
       </c>
       <c r="AI65" s="3">
-        <f>U65/S65</f>
+        <f t="shared" si="10"/>
         <v>1.0175801670739983</v>
       </c>
       <c r="AJ65" s="4">
-        <f>(R65&lt;0.85)+(T65&lt;0.85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK65" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL65" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM65" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM65" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN65" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9927,31 +9879,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH66" s="3">
-        <f>T66/R66</f>
+        <f t="shared" ref="AH66:AH96" si="12">T66/R66</f>
         <v>0.79723063715086517</v>
       </c>
       <c r="AI66" s="3">
-        <f>U66/S66</f>
+        <f t="shared" ref="AI66:AI96" si="13">U66/S66</f>
         <v>0.88402683333300647</v>
       </c>
       <c r="AJ66" s="4">
-        <f>(R66&lt;0.85)+(T66&lt;0.85)</f>
+        <f t="shared" ref="AJ66:AJ96" si="14">(R66&lt;0.85)+(T66&lt;0.85)</f>
         <v>1</v>
       </c>
       <c r="AK66" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL66" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM66" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM66" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AN66" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10056,31 +10008,31 @@
         <v>0.2</v>
       </c>
       <c r="AH67" s="3">
-        <f>T67/R67</f>
+        <f t="shared" si="12"/>
         <v>1.0927078903728713</v>
       </c>
       <c r="AI67" s="3">
-        <f>U67/S67</f>
+        <f t="shared" si="13"/>
         <v>1.0166939739608316</v>
       </c>
       <c r="AJ67" s="4">
-        <f>(R67&lt;0.85)+(T67&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK67" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL67" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM67" t="b">
-        <f t="shared" ref="AM67:AM96" si="6">(S67/R67&gt;1.15)</f>
+        <f t="shared" ref="AM67:AM96" si="15">(S67/R67&gt;1.15)</f>
         <v>0</v>
       </c>
       <c r="AN67" t="b">
-        <f t="shared" ref="AN67:AN96" si="7">(U67/T67&gt;1.15)</f>
+        <f t="shared" ref="AN67:AN96" si="16">(U67/T67&gt;1.15)</f>
         <v>0</v>
       </c>
     </row>
@@ -10185,31 +10137,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH68" s="3">
-        <f>T68/R68</f>
+        <f t="shared" si="12"/>
         <v>0.91306102311471871</v>
       </c>
       <c r="AI68" s="3">
-        <f>U68/S68</f>
+        <f t="shared" si="13"/>
         <v>0.86662023387248888</v>
       </c>
       <c r="AJ68" s="4">
-        <f>(R68&lt;0.85)+(T68&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK68" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL68" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM68" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN68" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -10314,31 +10266,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH69" s="3">
-        <f>T69/R69</f>
+        <f t="shared" si="12"/>
         <v>0.80964975229576852</v>
       </c>
       <c r="AI69" s="3">
-        <f>U69/S69</f>
+        <f t="shared" si="13"/>
         <v>0.83985829654067634</v>
       </c>
       <c r="AJ69" s="4">
-        <f>(R69&lt;0.85)+(T69&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK69" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL69" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM69" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN69" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -10443,31 +10395,31 @@
         <v>0.22857142857142801</v>
       </c>
       <c r="AH70" s="3">
-        <f>T70/R70</f>
+        <f t="shared" si="12"/>
         <v>0.92114360579173282</v>
       </c>
       <c r="AI70" s="3">
-        <f>U70/S70</f>
+        <f t="shared" si="13"/>
         <v>0.9032315616965092</v>
       </c>
       <c r="AJ70" s="4">
-        <f>(R70&lt;0.85)+(T70&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK70" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL70" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM70" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN70" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -10572,31 +10524,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH71" s="3">
-        <f>T71/R71</f>
+        <f t="shared" si="12"/>
         <v>0.96453709935451826</v>
       </c>
       <c r="AI71" s="3">
-        <f>U71/S71</f>
+        <f t="shared" si="13"/>
         <v>0.90784001145349702</v>
       </c>
       <c r="AJ71" s="4">
-        <f>(R71&lt;0.85)+(T71&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AK71" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL71" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM71" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN71" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -10701,31 +10653,31 @@
         <v>0.85714285714285698</v>
       </c>
       <c r="AH72" s="3">
-        <f>T72/R72</f>
+        <f t="shared" si="12"/>
         <v>1.0525385299887826</v>
       </c>
       <c r="AI72" s="3">
-        <f>U72/S72</f>
+        <f t="shared" si="13"/>
         <v>1.0122635421007538</v>
       </c>
       <c r="AJ72" s="4">
-        <f>(R72&lt;0.85)+(T72&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK72" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL72" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM72" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN72" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -10830,31 +10782,31 @@
         <v>1</v>
       </c>
       <c r="AH73" s="3">
-        <f>T73/R73</f>
+        <f t="shared" si="12"/>
         <v>0.92766408219191077</v>
       </c>
       <c r="AI73" s="3">
-        <f>U73/S73</f>
+        <f t="shared" si="13"/>
         <v>1.0169816612627089</v>
       </c>
       <c r="AJ73" s="4">
-        <f>(R73&lt;0.85)+(T73&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK73" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL73" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM73" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN73" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -10959,31 +10911,31 @@
         <v>1</v>
       </c>
       <c r="AH74" s="3">
-        <f>T74/R74</f>
+        <f t="shared" si="12"/>
         <v>0.96877392418138764</v>
       </c>
       <c r="AI74" s="3">
-        <f>U74/S74</f>
+        <f t="shared" si="13"/>
         <v>0.92306378548493817</v>
       </c>
       <c r="AJ74" s="4">
-        <f>(R74&lt;0.85)+(T74&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK74" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL74" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM74" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN74" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -11088,31 +11040,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH75" s="3">
-        <f>T75/R75</f>
+        <f t="shared" si="12"/>
         <v>0.87125955134307886</v>
       </c>
       <c r="AI75" s="3">
-        <f>U75/S75</f>
+        <f t="shared" si="13"/>
         <v>0.81286835589248596</v>
       </c>
       <c r="AJ75" s="4">
-        <f>(R75&lt;0.85)+(T75&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AK75" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL75" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM75" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN75" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -11217,31 +11169,31 @@
         <v>0.4</v>
       </c>
       <c r="AH76" s="3">
-        <f>T76/R76</f>
+        <f t="shared" si="12"/>
         <v>0.94152454248817929</v>
       </c>
       <c r="AI76" s="3">
-        <f>U76/S76</f>
+        <f t="shared" si="13"/>
         <v>0.99114015680410605</v>
       </c>
       <c r="AJ76" s="4">
-        <f>(R76&lt;0.85)+(T76&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK76" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL76" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM76" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN76" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -11346,31 +11298,31 @@
         <v>0.85714285714285698</v>
       </c>
       <c r="AH77" s="3">
-        <f>T77/R77</f>
+        <f t="shared" si="12"/>
         <v>1.2180222367424258</v>
       </c>
       <c r="AI77" s="3">
-        <f>U77/S77</f>
+        <f t="shared" si="13"/>
         <v>0.96610802105066274</v>
       </c>
       <c r="AJ77" s="4">
-        <f>(R77&lt;0.85)+(T77&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK77" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL77" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AM77" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN77" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -11475,31 +11427,31 @@
         <v>0.22857142857142801</v>
       </c>
       <c r="AH78" s="3">
-        <f>T78/R78</f>
+        <f t="shared" si="12"/>
         <v>1.0531007371625543</v>
       </c>
       <c r="AI78" s="3">
-        <f>U78/S78</f>
+        <f t="shared" si="13"/>
         <v>0.97246608591569739</v>
       </c>
       <c r="AJ78" s="4">
-        <f>(R78&lt;0.85)+(T78&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK78" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL78" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM78" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN78" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -11604,31 +11556,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH79" s="3">
-        <f>T79/R79</f>
+        <f t="shared" si="12"/>
         <v>0.97578162313981864</v>
       </c>
       <c r="AI79" s="3">
-        <f>U79/S79</f>
+        <f t="shared" si="13"/>
         <v>0.96555308492017378</v>
       </c>
       <c r="AJ79" s="4">
-        <f>(R79&lt;0.85)+(T79&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK79" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL79" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM79" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN79" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -11733,31 +11685,31 @@
         <v>0.114285714285714</v>
       </c>
       <c r="AH80" s="3">
-        <f>T80/R80</f>
+        <f t="shared" si="12"/>
         <v>1.1094553229411106</v>
       </c>
       <c r="AI80" s="3">
-        <f>U80/S80</f>
+        <f t="shared" si="13"/>
         <v>0.96867754830800323</v>
       </c>
       <c r="AJ80" s="4">
-        <f>(R80&lt;0.85)+(T80&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK80" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL80" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM80" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN80" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -11862,31 +11814,31 @@
         <v>0.22857142857142801</v>
       </c>
       <c r="AH81" s="3">
-        <f>T81/R81</f>
+        <f t="shared" si="12"/>
         <v>1.1127702093343133</v>
       </c>
       <c r="AI81" s="3">
-        <f>U81/S81</f>
+        <f t="shared" si="13"/>
         <v>0.87320367762343154</v>
       </c>
       <c r="AJ81" s="4">
-        <f>(R81&lt;0.85)+(T81&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK81" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL81" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AM81" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN81" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -11991,31 +11943,31 @@
         <v>0.4</v>
       </c>
       <c r="AH82" s="3">
-        <f>T82/R82</f>
+        <f t="shared" si="12"/>
         <v>1.0215244939559158</v>
       </c>
       <c r="AI82" s="3">
-        <f>U82/S82</f>
+        <f t="shared" si="13"/>
         <v>0.96269183037782924</v>
       </c>
       <c r="AJ82" s="4">
-        <f>(R82&lt;0.85)+(T82&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK82" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL82" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM82" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN82" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -12120,31 +12072,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH83" s="3">
-        <f>T83/R83</f>
+        <f t="shared" si="12"/>
         <v>1.2158209015285726</v>
       </c>
       <c r="AI83" s="3">
-        <f>U83/S83</f>
+        <f t="shared" si="13"/>
         <v>0.97360936838061496</v>
       </c>
       <c r="AJ83" s="4">
-        <f>(R83&lt;0.85)+(T83&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK83" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL83" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM83" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN83" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -12249,31 +12201,31 @@
         <v>0.4</v>
       </c>
       <c r="AH84" s="3">
-        <f>T84/R84</f>
+        <f t="shared" si="12"/>
         <v>0.99920202675624359</v>
       </c>
       <c r="AI84" s="3">
-        <f>U84/S84</f>
+        <f t="shared" si="13"/>
         <v>0.98345977531056761</v>
       </c>
       <c r="AJ84" s="4">
-        <f>(R84&lt;0.85)+(T84&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK84" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL84" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM84" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN84" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -12378,31 +12330,31 @@
         <v>1</v>
       </c>
       <c r="AH85" s="3">
-        <f>T85/R85</f>
+        <f t="shared" si="12"/>
         <v>1.0443658666192668</v>
       </c>
       <c r="AI85" s="3">
-        <f>U85/S85</f>
+        <f t="shared" si="13"/>
         <v>0.92461827257025231</v>
       </c>
       <c r="AJ85" s="4">
-        <f>(R85&lt;0.85)+(T85&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK85" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL85" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM85" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN85" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -12507,31 +12459,31 @@
         <v>0.34285714285714203</v>
       </c>
       <c r="AH86" s="3">
-        <f>T86/R86</f>
+        <f t="shared" si="12"/>
         <v>1.111723740226094</v>
       </c>
       <c r="AI86" s="3">
-        <f>U86/S86</f>
+        <f t="shared" si="13"/>
         <v>0.91013065210129118</v>
       </c>
       <c r="AJ86" s="4">
-        <f>(R86&lt;0.85)+(T86&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK86" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL86" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM86" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN86" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -12636,31 +12588,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH87" s="3">
-        <f>T87/R87</f>
+        <f t="shared" si="12"/>
         <v>0.93079088485706085</v>
       </c>
       <c r="AI87" s="3">
-        <f>U87/S87</f>
+        <f t="shared" si="13"/>
         <v>0.80145593261305437</v>
       </c>
       <c r="AJ87" s="4">
-        <f>(R87&lt;0.85)+(T87&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AK87" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL87" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM87" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN87" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -12765,31 +12717,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH88" s="3">
-        <f>T88/R88</f>
+        <f t="shared" si="12"/>
         <v>0.97773512606419288</v>
       </c>
       <c r="AI88" s="3">
-        <f>U88/S88</f>
+        <f t="shared" si="13"/>
         <v>0.75365949988494796</v>
       </c>
       <c r="AJ88" s="4">
-        <f>(R88&lt;0.85)+(T88&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AK88" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL88" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AM88" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN88" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -12894,31 +12846,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH89" s="3">
-        <f>T89/R89</f>
+        <f t="shared" si="12"/>
         <v>0.7385784877773337</v>
       </c>
       <c r="AI89" s="3">
-        <f>U89/S89</f>
+        <f t="shared" si="13"/>
         <v>0.71180313791575234</v>
       </c>
       <c r="AJ89" s="4">
-        <f>(R89&lt;0.85)+(T89&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AK89" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AL89" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AM89" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN89" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13023,31 +12975,31 @@
         <v>0.1</v>
       </c>
       <c r="AH90" s="3">
-        <f>T90/R90</f>
+        <f t="shared" si="12"/>
         <v>0.90331002217462097</v>
       </c>
       <c r="AI90" s="3">
-        <f>U90/S90</f>
+        <f t="shared" si="13"/>
         <v>0.733184228757362</v>
       </c>
       <c r="AJ90" s="4">
-        <f>(R90&lt;0.85)+(T90&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AK90" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL90" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AM90" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN90" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13152,31 +13104,31 @@
         <v>2.8571428571428501E-2</v>
       </c>
       <c r="AH91" s="3">
-        <f>T91/R91</f>
+        <f t="shared" si="12"/>
         <v>0.95121800918494337</v>
       </c>
       <c r="AI91" s="3">
-        <f>U91/S91</f>
+        <f t="shared" si="13"/>
         <v>0.74837202316398255</v>
       </c>
       <c r="AJ91" s="4">
-        <f>(R91&lt;0.85)+(T91&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AK91" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL91" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AM91" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN91" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13281,31 +13233,31 @@
         <v>5.7142857142857099E-2</v>
       </c>
       <c r="AH92" s="3">
-        <f>T92/R92</f>
+        <f t="shared" si="12"/>
         <v>0.82556259905840157</v>
       </c>
       <c r="AI92" s="3">
-        <f>U92/S92</f>
+        <f t="shared" si="13"/>
         <v>0.71848563712377489</v>
       </c>
       <c r="AJ92" s="4">
-        <f>(R92&lt;0.85)+(T92&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AK92" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL92" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM92" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN92" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13410,31 +13362,31 @@
         <v>0.1</v>
       </c>
       <c r="AH93" s="3">
-        <f>T93/R93</f>
+        <f t="shared" si="12"/>
         <v>0.77856371627265508</v>
       </c>
       <c r="AI93" s="3">
-        <f>U93/S93</f>
+        <f t="shared" si="13"/>
         <v>0.84129708905988787</v>
       </c>
       <c r="AJ93" s="4">
-        <f>(R93&lt;0.85)+(T93&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AK93" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL93" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM93" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN93" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13539,31 +13491,31 @@
         <v>0.1</v>
       </c>
       <c r="AH94" s="3">
-        <f>T94/R94</f>
+        <f t="shared" si="12"/>
         <v>0.82437189088336404</v>
       </c>
       <c r="AI94" s="3">
-        <f>U94/S94</f>
+        <f t="shared" si="13"/>
         <v>0.71812085779525392</v>
       </c>
       <c r="AJ94" s="4">
-        <f>(R94&lt;0.85)+(T94&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AK94" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL94" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM94" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN94" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13668,31 +13620,31 @@
         <v>0.2</v>
       </c>
       <c r="AH95" s="3">
-        <f>T95/R95</f>
+        <f t="shared" si="12"/>
         <v>0.674752840278532</v>
       </c>
       <c r="AI95" s="3">
-        <f>U95/S95</f>
+        <f t="shared" si="13"/>
         <v>0.74805489207196318</v>
       </c>
       <c r="AJ95" s="4">
-        <f>(R95&lt;0.85)+(T95&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AK95" t="b">
-        <f t="shared" ref="AK95:AK96" si="8">(S95/R95&lt;0.85)</f>
+        <f t="shared" ref="AK95:AK96" si="17">(S95/R95&lt;0.85)</f>
         <v>0</v>
       </c>
       <c r="AL95" t="b">
-        <f t="shared" ref="AL95:AL96" si="9">(U95/T95&lt;0.85)</f>
+        <f t="shared" ref="AL95:AL96" si="18">(U95/T95&lt;0.85)</f>
         <v>0</v>
       </c>
       <c r="AM95" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN95" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13797,31 +13749,31 @@
         <v>2.8571428571428501E-2</v>
       </c>
       <c r="AH96" s="3">
-        <f>T96/R96</f>
+        <f t="shared" si="12"/>
         <v>0.7544181163524466</v>
       </c>
       <c r="AI96" s="3">
-        <f>U96/S96</f>
+        <f t="shared" si="13"/>
         <v>0.78733326576447649</v>
       </c>
       <c r="AJ96" s="4">
-        <f>(R96&lt;0.85)+(T96&lt;0.85)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AK96" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AL96" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AM96" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN96" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13830,20 +13782,15 @@
     <sortCondition descending="1" ref="AJ2:AJ96"/>
   </sortState>
   <conditionalFormatting sqref="R2:U96">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThanOrEqual">
       <formula>1.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="lessThanOrEqual">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:AG96">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThanOrEqual">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH1:AN1">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13859,19 +13806,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AL96">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",AK2)))</formula>
+  <conditionalFormatting sqref="AH1:AN1">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThanOrEqual">
+      <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN96">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",AN2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM96">
+  <conditionalFormatting sqref="AK2:AN96">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",AM2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",AK2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fadu_data_all_drugs_vs_ctrl_plot_run1_CTB.xlsx
+++ b/fadu_data_all_drugs_vs_ctrl_plot_run1_CTB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilya/Work/Flavi CBD screen/CBD_synergy_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF84C540-D1E2-7B47-8AC1-C115DD53E0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3801413-E2A8-A249-AE32-B011756585D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="5240" windowWidth="36960" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="720" windowWidth="46280" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fadu_data_all_drugs_vs_ctrl_plo" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>drugs</t>
   </si>
@@ -450,15 +450,22 @@
   </si>
   <si>
     <t>Overall, higher conc  inhibiting less</t>
+  </si>
+  <si>
+    <t>In background, fluctuated UP</t>
+  </si>
+  <si>
+    <t>Apoptozole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -893,7 +900,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -936,15 +943,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -984,6 +993,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1349,11 +1359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP96"/>
+  <dimension ref="A1:AQ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP7" sqref="AP7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1365,7 +1375,7 @@
     <col min="41" max="41" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1497,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1616,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1752,7 +1762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1888,7 +1898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2024,7 +2034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -2160,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2295,8 +2305,12 @@
         <f>COUNTIFS(AH1:AH76,"&gt;=1.15")</f>
         <v>6</v>
       </c>
+      <c r="AQ7" s="5">
+        <f>AP7/75</f>
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -2424,8 +2438,19 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AO8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP8">
+        <f>COUNTIFS(AH77:AH86,"&gt;=1.15")</f>
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="5">
+        <f>AP8/10</f>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2554,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2683,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2812,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2941,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3070,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -3199,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3328,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -6168,7 +6193,7 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="B38">
         <v>255373.33333333299</v>
